--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_24_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_24_43.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77155.72687967205</v>
+        <v>5151068.340509109</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77155.72687967205</v>
+        <v>5151068.340509109</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1037322026.846886</v>
+        <v>40304256.70719868</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12503.78567354918</v>
+        <v>1165674.194392881</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22659.70183751169</v>
+        <v>1923642.224522501</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32805.85829813495</v>
+        <v>2681610.254652121</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43166.68043151655</v>
+        <v>3438818.587238888</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53527.50256489813</v>
+        <v>4196026.919825655</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63888.31201055097</v>
+        <v>4953235.252412422</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74249.13414393253</v>
+        <v>5710443.584999185</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>84609.95627731414</v>
+        <v>6467651.917585948</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>94970.77841069574</v>
+        <v>7224860.25017271</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>105331.6005440773</v>
+        <v>7982068.582759473</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>115692.422677459</v>
+        <v>8739276.915346237</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>126053.2448108406</v>
+        <v>9496485.247933004</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>136414.063757879</v>
+        <v>10253693.58051977</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>146774.8858912606</v>
+        <v>11010901.91310655</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>157135.7080246423</v>
+        <v>11768110.24569332</v>
       </c>
     </row>
   </sheetData>
